--- a/src/main/resources/org/jxls/demo/guide/grouping_template.xlsx
+++ b/src/main/resources/org/jxls/demo/guide/grouping_template.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -578,7 +578,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>

--- a/src/main/resources/org/jxls/demo/guide/grouping_template.xlsx
+++ b/src/main/resources/org/jxls/demo/guide/grouping_template.xlsx
@@ -67,7 +67,7 @@
             <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="employees" groupBy="name" lastCell="D6")</t>
+jx:each(items="employees" groupBy="name" groupOrder="asc" lastCell="D6")</t>
         </r>
       </text>
     </comment>
@@ -578,9 +578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>

--- a/src/main/resources/org/jxls/demo/guide/grouping_template.xlsx
+++ b/src/main/resources/org/jxls/demo/guide/grouping_template.xlsx
@@ -41,7 +41,7 @@
             <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="D6")</t>
+jx:area(lastCell="D8")</t>
         </r>
       </text>
     </comment>
@@ -67,7 +67,7 @@
             <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="employees" groupBy="name" groupOrder="asc" lastCell="D6")</t>
+jx:each(items="employees" groupBy="name" groupOrder="asc" lastCell="D7")</t>
         </r>
       </text>
     </comment>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>Employee Name:</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Grand Total:</t>
   </si>
 </sst>
 </file>
@@ -148,7 +154,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +219,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -263,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -275,6 +299,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -576,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -636,6 +664,24 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="12">
+        <f>SUM(C6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="14">
+        <f>SUM(C7)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/org/jxls/demo/guide/grouping_template.xlsx
+++ b/src/main/resources/org/jxls/demo/guide/grouping_template.xlsx
@@ -67,7 +67,7 @@
             <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="employees" groupBy="name" groupOrder="asc" lastCell="D7")</t>
+jx:each(items="employees" var="nameGroup" groupBy="name" groupOrder="asc" lastCell="D7")</t>
         </r>
       </text>
     </comment>
@@ -93,7 +93,7 @@
             <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="_group.items" var="employee" lastCell="D6")</t>
+jx:each(items="nameGroup.items" var="employee" lastCell="D6")</t>
         </r>
       </text>
     </comment>
@@ -128,9 +128,6 @@
     <t>${employee.bonus}</t>
   </si>
   <si>
-    <t>${_group.item.name}</t>
-  </si>
-  <si>
     <t>GROUP BY EMPLOYEE NAME</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>Grand Total:</t>
+  </si>
+  <si>
+    <t>${nameGroup.item.name}</t>
   </si>
 </sst>
 </file>
@@ -617,23 +617,23 @@
   <sheetData>
     <row r="1" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -666,7 +666,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="12">
         <f>SUM(C6)</f>
@@ -675,7 +675,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="14">
         <f>SUM(C7)</f>
